--- a/data/steel/factories/iron_IBF_factory-HC.xlsx
+++ b/data/steel/factories/iron_IBF_factory-HC.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BlackBlox\data\steel\factories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/factories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5463C0E5-85F7-FD40-824A-9A706D30006E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7860" yWindow="465" windowWidth="20940" windowHeight="16515" activeTab="1"/>
+    <workbookView xWindow="1580" yWindow="460" windowWidth="20940" windowHeight="16520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="9" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="66">
   <si>
     <t>Inflow</t>
   </si>
@@ -176,9 +177,6 @@
     <t>heat</t>
   </si>
   <si>
-    <t>CO2__emitted</t>
-  </si>
-  <si>
     <t>simple_heat</t>
   </si>
   <si>
@@ -219,12 +217,21 @@
   </si>
   <si>
     <t>iron</t>
+  </si>
+  <si>
+    <t>CO2__fossil</t>
+  </si>
+  <si>
+    <t>CO2__bio</t>
+  </si>
+  <si>
+    <t>CO2__calcination</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -321,7 +328,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -632,21 +639,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -663,9 +670,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -674,10 +681,10 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -691,7 +698,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -705,7 +712,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -719,7 +726,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -733,7 +740,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -747,9 +754,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>44</v>
@@ -761,9 +768,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
         <v>44</v>
@@ -772,10 +779,10 @@
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -786,15 +793,15 @@
         <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
         <v>53</v>
-      </c>
-      <c r="B11" t="s">
-        <v>54</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -804,18 +811,18 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -824,30 +831,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
-    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -885,9 +892,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>38</v>
@@ -911,9 +918,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
         <v>38</v>
@@ -937,9 +944,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
@@ -963,9 +970,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>21</v>
@@ -989,7 +996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>33</v>
       </c>
@@ -1015,9 +1022,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>21</v>
@@ -1041,9 +1048,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>37</v>
@@ -1052,22 +1059,22 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" t="s">
         <v>55</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="I8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>28</v>
       </c>
@@ -1078,24 +1085,24 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" t="s">
         <v>55</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="I9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>38</v>
@@ -1104,22 +1111,22 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="I10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>33</v>
       </c>
@@ -1130,24 +1137,24 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
         <v>55</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="I11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -1171,7 +1178,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>8</v>
       </c>
@@ -1197,7 +1204,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>20</v>
       </c>
@@ -1223,7 +1230,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>28</v>
       </c>
@@ -1249,7 +1256,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>33</v>
       </c>
@@ -1275,9 +1282,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>21</v>
@@ -1286,7 +1293,7 @@
         <v>18</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>44</v>
@@ -1298,10 +1305,10 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>28</v>
       </c>
@@ -1312,7 +1319,7 @@
         <v>18</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>44</v>
@@ -1321,13 +1328,13 @@
         <v>45</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>8</v>
       </c>
@@ -1338,7 +1345,7 @@
         <v>18</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>44</v>
@@ -1347,15 +1354,15 @@
         <v>45</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>21</v>
@@ -1364,7 +1371,7 @@
         <v>18</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>44</v>
@@ -1373,174 +1380,174 @@
         <v>45</v>
       </c>
       <c r="H20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>62</v>
       </c>
-      <c r="I20" t="s">
+      <c r="C21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="I22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
         <v>46</v>
       </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F26" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="1" t="s">
+      <c r="G26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G24" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" t="s">
-        <v>59</v>
-      </c>
-      <c r="G26" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -1561,29 +1568,159 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F32" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="1" t="s">
+      <c r="G32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1593,21 +1730,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
-    <col min="2" max="2" width="18.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.875" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1618,7 +1755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1629,7 +1766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1640,7 +1777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
@@ -1650,16 +1787,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1670,29 +1807,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="C2" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="1"/>
       <c r="C4" s="9"/>

--- a/data/steel/factories/iron_IBF_factory-HC.xlsx
+++ b/data/steel/factories/iron_IBF_factory-HC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/factories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5463C0E5-85F7-FD40-824A-9A706D30006E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157A5F45-FC35-8B4A-893D-9DCFFC3CA1CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="460" windowWidth="20940" windowHeight="16520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="9" r:id="rId1"/>
@@ -18,17 +18,23 @@
     <sheet name="iron" sheetId="2" r:id="rId3"/>
     <sheet name="CO2" sheetId="10" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="68">
   <si>
     <t>Inflow</t>
   </si>
@@ -226,6 +232,12 @@
   </si>
   <si>
     <t>CO2__calcination</t>
+  </si>
+  <si>
+    <t>CCS Power</t>
+  </si>
+  <si>
+    <t>duplicate_power</t>
   </si>
 </sst>
 </file>
@@ -640,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -784,44 +796,58 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>55</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>55</v>
       </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -832,10 +858,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1536,10 +1562,10 @@
         <v>18</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="I26" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
@@ -1562,10 +1588,10 @@
         <v>18</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="I27" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
@@ -1692,10 +1718,10 @@
         <v>18</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="I32" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
@@ -1718,10 +1744,36 @@
         <v>18</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="I33" t="s">
-        <v>23</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I34" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1791,10 +1843,13 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">

--- a/data/steel/factories/iron_IBF_factory-HC.xlsx
+++ b/data/steel/factories/iron_IBF_factory-HC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/factories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157A5F45-FC35-8B4A-893D-9DCFFC3CA1CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E439F74C-42CA-0947-AC38-E5D62F730C73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14900" yWindow="460" windowWidth="13900" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="9" r:id="rId1"/>
@@ -860,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
